--- a/ecosysem/kinetics/Excels/qs.xlsx
+++ b/ecosysem/kinetics/Excels/qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\kinetics\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF975FA4-60E6-4859-B1C1-FCB08DEFCE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4047BF-5648-49BB-B566-423A14B644A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,10 @@
     <t>Catabolism</t>
   </si>
   <si>
-    <t>CH4 oxidation</t>
-  </si>
-  <si>
-    <t>H2 oxidation</t>
+    <t>Mth</t>
+  </si>
+  <si>
+    <t>HOB</t>
   </si>
 </sst>
 </file>
@@ -447,12 +447,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -744,7 +744,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/kinetics/Excels/qs.xlsx
+++ b/ecosysem/kinetics/Excels/qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\kinetics\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4047BF-5648-49BB-B566-423A14B644A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544763DD-3E24-49F8-8266-62AC08E4C845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4044" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,13 +344,13 @@
     <t>Constant2010</t>
   </si>
   <si>
-    <t>Catabolism</t>
-  </si>
-  <si>
     <t>Mth</t>
   </si>
   <si>
     <t>HOB</t>
+  </si>
+  <si>
+    <t>Reaction</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>20</v>
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7">
         <f>0.0491*10^(-15)</f>
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8">
         <f>1.33*10^(-15)</f>
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7">
         <f>0.000274*10^(-15)</f>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <f>0.95*10^(-15)</f>
@@ -849,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8">
         <f>5.29*10^(-15)</f>
@@ -867,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8">
         <f>0.11*10^(-15)</f>
@@ -885,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8">
         <f>1.68*10^(-15)</f>
@@ -903,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8">
         <f>0.73*10^(-15)</f>
@@ -921,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8">
         <f>0.28*10^(-15)</f>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8">
         <f>0.13*10^(-15)</f>
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="8">
         <f>8.61*10^(-15)</f>
@@ -975,7 +975,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8">
         <f>14.27*10^(-15)</f>
@@ -993,7 +993,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8">
         <f>3.77*10^(-15)</f>
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8">
         <f>4.4*10^(-15)</f>
@@ -1029,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8">
         <f>2.25*10^(-15)</f>
@@ -1047,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8">
         <f>1.25*10^(-15)</f>
@@ -1065,7 +1065,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8">
         <f>2.13*10^(-15)</f>
@@ -1083,7 +1083,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8">
         <f>0.56*10^(-15)</f>

--- a/ecosysem/kinetics/Excels/qs.xlsx
+++ b/ecosysem/kinetics/Excels/qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\kinetics\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544763DD-3E24-49F8-8266-62AC08E4C845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C98F17-7AD0-4E29-AA64-3A856E45E851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4044" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,9 +320,6 @@
     <t>qmax (mol/h/cell)</t>
   </si>
   <si>
-    <t>Km (nM)</t>
-  </si>
-  <si>
     <t>Schmider2024</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>Reaction</t>
+  </si>
+  <si>
+    <t>Km (M)</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -777,17 +777,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7">
         <f>0.0491*10^(-15)</f>
         <v>4.9099999999999999E-17</v>
       </c>
-      <c r="D2" s="8">
-        <v>48.54</v>
+      <c r="D2" s="7">
+        <f>48.54*10^(-9)</f>
+        <v>4.8540000000000003E-8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -795,17 +796,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="8">
         <f>1.33*10^(-15)</f>
         <v>1.3300000000000001E-15</v>
       </c>
-      <c r="D3" s="8">
-        <v>402.8</v>
+      <c r="D3" s="7">
+        <f>402.8*10^(-9)</f>
+        <v>4.0280000000000003E-7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -813,17 +815,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7">
         <f>0.000274*10^(-15)</f>
         <v>2.74E-19</v>
       </c>
-      <c r="D4" s="8">
-        <v>113</v>
+      <c r="D4" s="7">
+        <f>113*10^(-9)</f>
+        <v>1.1300000000000001E-7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -831,17 +834,18 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8">
         <f>0.95*10^(-15)</f>
         <v>9.5000000000000005E-16</v>
       </c>
-      <c r="D5" s="8">
-        <v>4910</v>
+      <c r="D5" s="7">
+        <f>4910*10^(-9)</f>
+        <v>4.9100000000000004E-6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -849,17 +853,18 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="8">
         <f>5.29*10^(-15)</f>
         <v>5.2900000000000004E-15</v>
       </c>
-      <c r="D6" s="8">
-        <v>8800</v>
+      <c r="D6" s="7">
+        <f>8800*10^(-9)</f>
+        <v>8.8000000000000004E-6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -867,17 +872,18 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8">
         <f>0.11*10^(-15)</f>
         <v>1.1000000000000001E-16</v>
       </c>
-      <c r="D7" s="8">
-        <v>110</v>
+      <c r="D7" s="7">
+        <f>110*10^(-9)</f>
+        <v>1.1000000000000001E-7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -885,17 +891,18 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <f>1.68*10^(-15)</f>
         <v>1.6800000000000001E-15</v>
       </c>
-      <c r="D8" s="8">
-        <v>62.42</v>
+      <c r="D8" s="7">
+        <f>62.42*10^(-9)</f>
+        <v>6.2419999999999999E-8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -903,17 +910,18 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8">
         <f>0.73*10^(-15)</f>
         <v>7.3000000000000003E-16</v>
       </c>
-      <c r="D9" s="8">
-        <v>46.81</v>
+      <c r="D9" s="7">
+        <f>46.81*10^(-9)</f>
+        <v>4.6810000000000007E-8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -921,17 +929,18 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8">
         <f>0.28*10^(-15)</f>
         <v>2.8000000000000006E-16</v>
       </c>
-      <c r="D10" s="8">
-        <v>31.21</v>
+      <c r="D10" s="7">
+        <f>31.21*10^(-9)</f>
+        <v>3.121E-8</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -939,17 +948,18 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8">
         <f>0.13*10^(-15)</f>
         <v>1.3000000000000002E-16</v>
       </c>
-      <c r="D11" s="8">
-        <v>31.21</v>
+      <c r="D11" s="7">
+        <f>31.21*10^(-9)</f>
+        <v>3.121E-8</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -957,17 +967,18 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8">
         <f>8.61*10^(-15)</f>
         <v>8.6100000000000007E-15</v>
       </c>
-      <c r="D12" s="8">
-        <v>43</v>
+      <c r="D12" s="7">
+        <f>43*10^(-9)</f>
+        <v>4.3000000000000001E-8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -975,17 +986,18 @@
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8">
         <f>14.27*10^(-15)</f>
         <v>1.4270000000000002E-14</v>
       </c>
-      <c r="D13" s="8">
-        <v>39</v>
+      <c r="D13" s="7">
+        <f>39*10^(-9)</f>
+        <v>3.9000000000000005E-8</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -993,17 +1005,18 @@
         <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8">
         <f>3.77*10^(-15)</f>
         <v>3.7700000000000001E-15</v>
       </c>
-      <c r="D14" s="8">
-        <v>100</v>
+      <c r="D14" s="7">
+        <f>100*10^(-9)</f>
+        <v>1.0000000000000001E-7</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1011,17 +1024,18 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8">
         <f>4.4*10^(-15)</f>
         <v>4.4000000000000005E-15</v>
       </c>
-      <c r="D15" s="8">
-        <v>135</v>
+      <c r="D15" s="7">
+        <f>135*10^(-9)</f>
+        <v>1.35E-7</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1029,17 +1043,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8">
         <f>2.25*10^(-15)</f>
         <v>2.2500000000000003E-15</v>
       </c>
-      <c r="D16" s="8">
-        <v>374</v>
+      <c r="D16" s="7">
+        <f>374*10^(-9)</f>
+        <v>3.7400000000000004E-7</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,17 +1062,18 @@
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8">
         <f>1.25*10^(-15)</f>
         <v>1.2500000000000002E-15</v>
       </c>
-      <c r="D17" s="8">
-        <v>361</v>
+      <c r="D17" s="7">
+        <f>361*10^(-9)</f>
+        <v>3.6100000000000002E-7</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1065,17 +1081,18 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="8">
         <f>2.13*10^(-15)</f>
         <v>2.1299999999999999E-15</v>
       </c>
-      <c r="D18" s="8">
-        <v>112</v>
+      <c r="D18" s="7">
+        <f>112*10^(-9)</f>
+        <v>1.1200000000000001E-7</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1083,17 +1100,18 @@
         <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="8">
         <f>0.56*10^(-15)</f>
         <v>5.6000000000000013E-16</v>
       </c>
-      <c r="D19" s="8">
-        <v>47</v>
+      <c r="D19" s="7">
+        <f>47*10^(-9)</f>
+        <v>4.7000000000000004E-8</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
